--- a/messages/messages.xlsx
+++ b/messages/messages.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6458813-B03E-4C6A-85B0-7739A5C79CEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -34,22 +35,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Un-terminated comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Un - terminated string / regexp / octet literal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Error in conditional compiling expression</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cannot be parsed as a number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Invalid character \'%1\'</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -163,10 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Insufficient memory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -242,23 +223,137 @@
       <t>フソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Internal error at %1 line %2</t>
+  </si>
+  <si>
+    <t>%c' is already registered.</t>
+  </si>
+  <si>
+    <t>Redundant properties.</t>
+  </si>
+  <si>
+    <t>Redundant parameters.</t>
+  </si>
+  <si>
+    <t>&lt;' is not closed by '&gt;' in tag.</t>
+  </si>
+  <si>
+    <t>{' is followed by a non-numeric value in tag.</t>
+  </si>
+  <si>
+    <t>{' is not closed by '}' in tag.</t>
+  </si>
+  <si>
+    <t>&lt;' is followed by a non-numeric value.</t>
+  </si>
+  <si>
+    <t>(' is followed by a non-numeric value.</t>
+  </si>
+  <si>
+    <t>(' is not closed by ')' in tag.</t>
+  </si>
+  <si>
+    <t>$ is followed by values that cannot be interpreted as parameter names.</t>
+  </si>
+  <si>
+    <t>&gt;' is followed by an uninterpretable string.</t>
+  </si>
+  <si>
+    <t>《' does not have '|' in the front, cannot interprete as a ruby character</t>
+  </si>
+  <si>
+    <t>{' does not have '|' in the front, cannot interprete as text decoration.</t>
+  </si>
+  <si>
+    <t>Unknown syntax.</t>
+  </si>
+  <si>
+    <t>:(' is not followed by a image file name, or ')' is missing.</t>
+  </si>
+  <si>
+    <t>Comment is not terminated.</t>
+  </si>
+  <si>
+    <t>String, regexp, or octet literal is not terminated.</t>
+  </si>
+  <si>
+    <t>Insufficient memory.</t>
+  </si>
+  <si>
+    <t>Cannot be interpreted as a numeric value.</t>
+  </si>
+  <si>
+    <t>%c' cannot be registered.</t>
+  </si>
+  <si>
+    <t>File description defined in property of \'%1\' is incorrect. \".\" must be followed by a string.</t>
+  </si>
+  <si>
+    <t>File description defined in property of \'%1\' is incorrect. \"::\" must be followed by a string.</t>
+  </si>
+  <si>
+    <t>Reference defined in property of \'%1\' is incorrect. \".\" must be followed by a string.</t>
+  </si>
+  <si>
+    <t>Reference defined in property of \'%1\' is incorrect. \"::\" must be followed by a string.</t>
+  </si>
+  <si>
+    <t>A numeric value is at the beginning of a line, but it is not interpreted as a choice due to lack of '.'</t>
+  </si>
+  <si>
+    <t>Property of \'%1\' is set to a value other than\"+\". Cannot be interpreted as a numberic value.</t>
+  </si>
+  <si>
+    <t>Property of \'%1\' is set to a value other than \"-\". Cannot be interpreted as a numberic value.</t>
+  </si>
+  <si>
+    <t># is followed by a string that cannot be interpreted as a label.</t>
+  </si>
+  <si>
+    <t>Error in conditional compiling expression</t>
+  </si>
+  <si>
+    <t>Uninterpretable symbol used in tag.</t>
+  </si>
+  <si>
+    <t>Text decoration is closed by ']'.</t>
+  </si>
+  <si>
+    <t>@ is followed by a string that cannot be interpreted as a character name.</t>
+  </si>
+  <si>
+    <t>|' is not found after '*' in a choice.</t>
+  </si>
+  <si>
+    <t>&gt;' is not followed by an if condition.</t>
+  </si>
+  <si>
+    <t>》' is not found after '《', cannot interprete as a ruby characters.</t>
+  </si>
+  <si>
+    <t>:' is not followed by an emoji, or ':' is missing.</t>
+  </si>
+  <si>
+    <t>End of file reached with tag unclosed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -284,9 +379,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -380,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,21 +721,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="95.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.25" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" customWidth="1"/>
+    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,223 +746,322 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+      <c r="C33" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+      <c r="C34" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+      <c r="C35" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+      <c r="C36" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+      <c r="C37" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+      <c r="C38" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+      <c r="C39" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>32</v>
+      <c r="C40" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
